--- a/teaching/traditional_assets/database/data/japan/japan_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/japan/japan_bank_money_center.xlsx
@@ -591,13 +591,13 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.00959</v>
+        <v>-0.03175</v>
       </c>
       <c r="E2">
-        <v>-0.07445</v>
+        <v>-0.112</v>
       </c>
       <c r="F2">
-        <v>0.0405</v>
+        <v>0.03555</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -606,91 +606,91 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-0.0001122559694405686</v>
+        <v>0.001664375258189216</v>
       </c>
       <c r="J2">
-        <v>-9.025899028312457e-05</v>
+        <v>0.001206495860983133</v>
       </c>
       <c r="K2">
-        <v>15643.9</v>
+        <v>12384.4</v>
       </c>
       <c r="L2">
-        <v>0.1468993558322535</v>
+        <v>0.1171528168647687</v>
       </c>
       <c r="M2">
-        <v>9976.606399999999</v>
+        <v>10396.1972</v>
       </c>
       <c r="N2">
-        <v>0.04657158288476988</v>
+        <v>0.05918451030244101</v>
       </c>
       <c r="O2">
-        <v>0.6377314096868427</v>
+        <v>0.839459093698524</v>
       </c>
       <c r="P2">
-        <v>7938.9964</v>
+        <v>9904.698200000001</v>
       </c>
       <c r="Q2">
-        <v>0.03705985923875775</v>
+        <v>0.05638645568020477</v>
       </c>
       <c r="R2">
-        <v>0.5074819194702088</v>
+        <v>0.7997721488324021</v>
       </c>
       <c r="S2">
-        <v>2037.61</v>
+        <v>491.4989999999997</v>
       </c>
       <c r="T2">
-        <v>0.2042387880512155</v>
+        <v>0.04727680617678161</v>
       </c>
       <c r="U2">
-        <v>2276452.5</v>
+        <v>2590571.8</v>
       </c>
       <c r="V2">
-        <v>10.62665921018911</v>
+        <v>14.74786601646159</v>
       </c>
       <c r="W2">
-        <v>0.04710709097426465</v>
+        <v>0.03604596813419601</v>
       </c>
       <c r="X2">
-        <v>0.1723751569200724</v>
+        <v>0.2298621187821548</v>
       </c>
       <c r="Y2">
-        <v>-0.1252680659458077</v>
+        <v>-0.1938161506479588</v>
       </c>
       <c r="Z2">
-        <v>-1.768611787335614</v>
+        <v>-0.8483005715892091</v>
       </c>
       <c r="AA2">
-        <v>3.110144233669619e-05</v>
+        <v>-2.867638158019965e-06</v>
       </c>
       <c r="AB2">
-        <v>0.04233812021450802</v>
+        <v>0.03774806730356173</v>
       </c>
       <c r="AC2">
-        <v>-0.04159332656869955</v>
+        <v>-0.03744716853040073</v>
       </c>
       <c r="AD2">
-        <v>1670208</v>
+        <v>2063966.4</v>
       </c>
       <c r="AE2">
-        <v>9053.772936048021</v>
+        <v>6764.081974469654</v>
       </c>
       <c r="AF2">
-        <v>1679261.772936048</v>
+        <v>2070730.481974469</v>
       </c>
       <c r="AG2">
-        <v>-597190.727063952</v>
+        <v>-519841.3180255303</v>
       </c>
       <c r="AH2">
-        <v>0.8868640822216622</v>
+        <v>0.9218045105168546</v>
       </c>
       <c r="AI2">
-        <v>0.7742862836125355</v>
+        <v>0.8130699358362655</v>
       </c>
       <c r="AJ2">
-        <v>1.559367565957689</v>
+        <v>1.510359115578928</v>
       </c>
       <c r="AK2">
-        <v>5.546706353811119</v>
+        <v>11.87749426912568</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>928.5123415610407</v>
+        <v>1350.091839137602</v>
       </c>
       <c r="AP2">
-        <v>-331.9939554502735</v>
+        <v>-340.0411562478939</v>
       </c>
     </row>
     <row r="3">
@@ -713,7 +713,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mizuho Financial Group, Inc. (TSE:8411)</t>
+          <t>Sumitomo Mitsui Trust Holdings, Inc. (TSE:8309)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -722,13 +722,13 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.00658</v>
+        <v>0.0157</v>
       </c>
       <c r="E3">
-        <v>-0.473</v>
+        <v>-0.0328</v>
       </c>
       <c r="F3">
-        <v>0.742</v>
+        <v>0.0316</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -737,91 +737,91 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.005758137551960001</v>
+        <v>-0.0002624567422960709</v>
       </c>
       <c r="J3">
-        <v>0.005758137551960001</v>
+        <v>-0.0001793935396297497</v>
       </c>
       <c r="K3">
-        <v>230.1</v>
+        <v>1299.7</v>
       </c>
       <c r="L3">
-        <v>0.009941800930666631</v>
+        <v>0.124497107168857</v>
       </c>
       <c r="M3">
-        <v>1775.1</v>
+        <v>531.9889999999999</v>
       </c>
       <c r="N3">
-        <v>0.04527403916047531</v>
+        <v>0.04614275058113311</v>
       </c>
       <c r="O3">
-        <v>7.714471968709256</v>
+        <v>0.4093167654074016</v>
       </c>
       <c r="P3">
-        <v>1761.6</v>
+        <v>531.79</v>
       </c>
       <c r="Q3">
-        <v>0.04492972079606405</v>
+        <v>0.04612549006002151</v>
       </c>
       <c r="R3">
-        <v>7.65580182529335</v>
+        <v>0.4091636531507271</v>
       </c>
       <c r="S3">
-        <v>13.5</v>
+        <v>0.1989999999999554</v>
       </c>
       <c r="T3">
-        <v>0.007605205340544195</v>
+        <v>0.0003740678848621972</v>
       </c>
       <c r="U3">
-        <v>401491.5</v>
+        <v>165902.8</v>
       </c>
       <c r="V3">
-        <v>10.24006641518674</v>
+        <v>14.38979287374666</v>
       </c>
       <c r="W3">
-        <v>0.00283894274366975</v>
+        <v>0.05255963862973703</v>
       </c>
       <c r="X3">
-        <v>0.1749451478260611</v>
+        <v>0.246452745171988</v>
       </c>
       <c r="Y3">
-        <v>-0.1721062050823913</v>
+        <v>-0.193893106542251</v>
       </c>
       <c r="Z3">
-        <v>0.510724941664383</v>
+        <v>0.8510659308541488</v>
       </c>
       <c r="AA3">
-        <v>0.002940824465320264</v>
+        <v>-0.0001526757297942135</v>
       </c>
       <c r="AB3">
-        <v>0.04234285276742263</v>
+        <v>0.03556559105179079</v>
       </c>
       <c r="AC3">
-        <v>-0.03940202830210236</v>
+        <v>-0.035718266781585</v>
       </c>
       <c r="AD3">
-        <v>313486.6</v>
+        <v>135409.8</v>
       </c>
       <c r="AE3">
-        <v>1649.648169005757</v>
+        <v>191.6997170343703</v>
       </c>
       <c r="AF3">
-        <v>315136.2481690057</v>
+        <v>135601.4997170344</v>
       </c>
       <c r="AG3">
-        <v>-86355.25183099427</v>
+        <v>-30301.30028296562</v>
       </c>
       <c r="AH3">
-        <v>0.8893507901778593</v>
+        <v>0.9216397392102853</v>
       </c>
       <c r="AI3">
-        <v>0.7914878992211373</v>
+        <v>0.8442831577082168</v>
       </c>
       <c r="AJ3">
-        <v>1.831603440645951</v>
+        <v>1.614166759510759</v>
       </c>
       <c r="AK3">
-        <v>25.89555571373572</v>
+        <v>5.726518248962061</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>676.784542314335</v>
+        <v>3803.64606741573</v>
       </c>
       <c r="AP3">
-        <v>-186.4318908268443</v>
+        <v>-851.1601203080229</v>
       </c>
     </row>
     <row r="4">
@@ -844,7 +844,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sumitomo Mitsui Trust Holdings, Inc. (TSE:8309)</t>
+          <t>JAPAN POST BANK Co.,Ltd. (TSE:7182)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -853,13 +853,13 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.0111</v>
+        <v>-0.0303</v>
       </c>
       <c r="E4">
-        <v>0.0436</v>
+        <v>-0.0679</v>
       </c>
       <c r="F4">
-        <v>0.0542</v>
+        <v>-0.0104</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -868,91 +868,91 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-0.0004738314992537338</v>
+        <v>0.0001456823838313365</v>
       </c>
       <c r="J4">
-        <v>-0.0003555341092834007</v>
+        <v>0.0001051520194834044</v>
       </c>
       <c r="K4">
-        <v>1743.1</v>
+        <v>2396.7</v>
       </c>
       <c r="L4">
-        <v>0.1730811240194618</v>
+        <v>0.1783059926347506</v>
       </c>
       <c r="M4">
-        <v>682.355</v>
+        <v>1779.7312</v>
       </c>
       <c r="N4">
-        <v>0.04572474887925431</v>
+        <v>0.05785015846186351</v>
       </c>
       <c r="O4">
-        <v>0.3914606161436521</v>
+        <v>0.7425757082655318</v>
       </c>
       <c r="P4">
-        <v>520.5549999999999</v>
+        <v>1776.9312</v>
       </c>
       <c r="Q4">
-        <v>0.03488249760438514</v>
+        <v>0.05775914446846202</v>
       </c>
       <c r="R4">
-        <v>0.298637484940623</v>
+        <v>0.7414074352234322</v>
       </c>
       <c r="S4">
-        <v>161.8000000000001</v>
+        <v>2.799999999999955</v>
       </c>
       <c r="T4">
-        <v>0.2371199742069745</v>
+        <v>0.001573271289507064</v>
       </c>
       <c r="U4">
-        <v>149409.7</v>
+        <v>533870.1</v>
       </c>
       <c r="V4">
-        <v>10.01197472375043</v>
+        <v>17.35344634237514</v>
       </c>
       <c r="W4">
-        <v>0.07445486192683083</v>
+        <v>0.02223360170989171</v>
       </c>
       <c r="X4">
-        <v>0.1936623483089996</v>
+        <v>0.1543498118570249</v>
       </c>
       <c r="Y4">
-        <v>-0.1192074863821688</v>
+        <v>-0.1321162101471332</v>
       </c>
       <c r="Z4">
-        <v>-0.1904117620639316</v>
+        <v>-0.05454271201082445</v>
       </c>
       <c r="AA4">
-        <v>6.769787622248277e-05</v>
+        <v>-5.735276316039929e-06</v>
       </c>
       <c r="AB4">
-        <v>0.04035336191127172</v>
+        <v>0.03668659747653964</v>
       </c>
       <c r="AC4">
-        <v>-0.04028566403504923</v>
+        <v>-0.03669233275285567</v>
       </c>
       <c r="AD4">
-        <v>136756.4</v>
+        <v>204084.5</v>
       </c>
       <c r="AE4">
-        <v>188.8597851449218</v>
+        <v>6.009051188655453</v>
       </c>
       <c r="AF4">
-        <v>136945.2597851449</v>
+        <v>204090.5090511887</v>
       </c>
       <c r="AG4">
-        <v>-12464.4402148551</v>
+        <v>-329779.5909488113</v>
       </c>
       <c r="AH4">
-        <v>0.9017366091191582</v>
+        <v>0.8690064132577449</v>
       </c>
       <c r="AI4">
-        <v>0.8453663675308335</v>
+        <v>0.6603690961163682</v>
       </c>
       <c r="AJ4">
-        <v>-5.069607552116253</v>
+        <v>1.102886111541663</v>
       </c>
       <c r="AK4">
-        <v>-0.9903841756792515</v>
+        <v>1.466893894603715</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="AN4">
-        <v>4144.133333333333</v>
+        <v>64583.70253164557</v>
       </c>
       <c r="AP4">
-        <v>-377.7103095410637</v>
+        <v>-104360.6300470922</v>
       </c>
     </row>
     <row r="5">
@@ -975,7 +975,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Aozora Bank, Ltd. (TSE:8304)</t>
+          <t>Mitsubishi UFJ Financial Group, Inc. (TSE:8306)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -984,13 +984,13 @@
         </is>
       </c>
       <c r="D5">
-        <v>-0.00219</v>
+        <v>-0.0491</v>
       </c>
       <c r="E5">
-        <v>-0.0359</v>
+        <v>-0.214</v>
       </c>
       <c r="F5">
-        <v>-0.00865</v>
+        <v>0.19</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -999,91 +999,91 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.01056007624684195</v>
+        <v>0.003818822811810438</v>
       </c>
       <c r="J5">
-        <v>0.007254166257835177</v>
+        <v>0.002481492712225962</v>
       </c>
       <c r="K5">
-        <v>323.8</v>
+        <v>4421.2</v>
       </c>
       <c r="L5">
-        <v>0.3132133875024183</v>
+        <v>0.1162919767163535</v>
       </c>
       <c r="M5">
-        <v>164.547</v>
+        <v>3527.7</v>
       </c>
       <c r="N5">
-        <v>0.05309509212351973</v>
+        <v>0.06214842545694781</v>
       </c>
       <c r="O5">
-        <v>0.5081747992588017</v>
+        <v>0.7979055460056094</v>
       </c>
       <c r="P5">
-        <v>164.547</v>
+        <v>3053.5</v>
       </c>
       <c r="Q5">
-        <v>0.05309509212351973</v>
+        <v>0.05379431843206342</v>
       </c>
       <c r="R5">
-        <v>0.5081747992588017</v>
+        <v>0.6906495973943726</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>474.1999999999998</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.1344218612693823</v>
       </c>
       <c r="U5">
-        <v>5438.1</v>
+        <v>890455.1</v>
       </c>
       <c r="V5">
-        <v>1.754735245716498</v>
+        <v>15.68738339572781</v>
       </c>
       <c r="W5">
-        <v>0.0840580462604813</v>
+        <v>0.02844100671848987</v>
       </c>
       <c r="X5">
-        <v>0.1036012901583454</v>
+        <v>0.3204119800415812</v>
       </c>
       <c r="Y5">
-        <v>-0.01954324389786415</v>
+        <v>-0.2919709733230913</v>
       </c>
       <c r="Z5">
-        <v>0.1133178016112431</v>
+        <v>0.2595333470790933</v>
       </c>
       <c r="AA5">
-        <v>0.0008220261728603402</v>
+        <v>0.0006440301093563812</v>
       </c>
       <c r="AB5">
-        <v>0.04240490544955838</v>
+        <v>0.03781435292744945</v>
       </c>
       <c r="AC5">
-        <v>-0.04158287927669804</v>
+        <v>-0.03717032281809306</v>
       </c>
       <c r="AD5">
-        <v>11418.2</v>
+        <v>897077.3</v>
       </c>
       <c r="AE5">
-        <v>34.41496588007394</v>
+        <v>4258.578062291548</v>
       </c>
       <c r="AF5">
-        <v>11452.61496588008</v>
+        <v>901335.8780622915</v>
       </c>
       <c r="AG5">
-        <v>6014.514965880075</v>
+        <v>10880.77806229156</v>
       </c>
       <c r="AH5">
-        <v>0.7870285387484176</v>
+        <v>0.940755040088055</v>
       </c>
       <c r="AI5">
-        <v>0.7222473596234262</v>
+        <v>0.8572955119370204</v>
       </c>
       <c r="AJ5">
-        <v>0.6599483287803426</v>
+        <v>0.1608552745222021</v>
       </c>
       <c r="AK5">
-        <v>0.5772743815469065</v>
+        <v>0.06761767644070908</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -1092,10 +1092,10 @@
         <v>0</v>
       </c>
       <c r="AN5">
-        <v>641.4719101123595</v>
+        <v>899.8668873507875</v>
       </c>
       <c r="AP5">
-        <v>337.8940992067458</v>
+        <v>10.91461336371909</v>
       </c>
     </row>
     <row r="6">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>JAPAN POST BANK Co.,Ltd. (TSE:7182)</t>
+          <t>Sumitomo Mitsui Financial Group, Inc. (TSE:8316)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1115,13 +1115,13 @@
         </is>
       </c>
       <c r="D6">
-        <v>-0.0126</v>
+        <v>-0.136</v>
       </c>
       <c r="E6">
-        <v>-0.06179999999999999</v>
+        <v>-0.402</v>
       </c>
       <c r="F6">
-        <v>0.00458</v>
+        <v>0.008659999999999999</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1130,103 +1130,97 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0001168984543024722</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>8.445511095627701e-05</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>2329.3</v>
+        <v>479.7</v>
       </c>
       <c r="L6">
-        <v>0.1747110401056082</v>
+        <v>0.02376116978066612</v>
       </c>
       <c r="M6">
-        <v>1739.0044</v>
+        <v>2583.8</v>
       </c>
       <c r="N6">
-        <v>0.04808901007128991</v>
+        <v>0.06103858674339604</v>
       </c>
       <c r="O6">
-        <v>0.7465781135963594</v>
+        <v>5.386283093600167</v>
       </c>
       <c r="P6">
-        <v>1735.6944</v>
+        <v>2583.8</v>
       </c>
       <c r="Q6">
-        <v>0.04799747802954467</v>
+        <v>0.06103858674339604</v>
       </c>
       <c r="R6">
-        <v>0.7451570858197741</v>
+        <v>5.386283093600167</v>
       </c>
       <c r="S6">
-        <v>3.309999999999945</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.001903387938523874</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>510760</v>
+        <v>600541.7</v>
       </c>
       <c r="V6">
-        <v>14.1241406772818</v>
+        <v>14.18694041662532</v>
       </c>
       <c r="W6">
-        <v>0.02343603009164934</v>
+        <v>0.004763082092419877</v>
       </c>
       <c r="X6">
-        <v>0.1140013353596116</v>
+        <v>0.2132714923923216</v>
       </c>
       <c r="Y6">
-        <v>-0.09056530526796229</v>
+        <v>-0.2085084102999017</v>
       </c>
       <c r="Z6">
-        <v>-0.06506404984696744</v>
+        <v>-0.4652959438373935</v>
       </c>
       <c r="AA6">
-        <v>-5.494991549090372e-06</v>
+        <v>-0</v>
       </c>
       <c r="AB6">
-        <v>0.04159827886915196</v>
+        <v>0.03772401424270838</v>
       </c>
       <c r="AC6">
-        <v>-0.04160377386070105</v>
+        <v>-0.03772401424270838</v>
       </c>
       <c r="AD6">
-        <v>156517.8</v>
+        <v>419677.6</v>
       </c>
       <c r="AE6">
-        <v>7.707373688515752</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>156525.5073736885</v>
+        <v>419677.6</v>
       </c>
       <c r="AG6">
-        <v>-354234.4926263115</v>
+        <v>-180864.1</v>
       </c>
       <c r="AH6">
-        <v>0.8123274157293858</v>
+        <v>0.9083769508852874</v>
       </c>
       <c r="AI6">
-        <v>0.5920084804480013</v>
+        <v>0.7966365224475757</v>
       </c>
       <c r="AJ6">
-        <v>1.113691763911311</v>
+        <v>1.305562192538267</v>
       </c>
       <c r="AK6">
-        <v>1.437858275682391</v>
+        <v>2.453066467018764</v>
       </c>
       <c r="AL6">
         <v>0</v>
       </c>
       <c r="AM6">
         <v>0</v>
-      </c>
-      <c r="AN6">
-        <v>50489.6129032258</v>
-      </c>
-      <c r="AP6">
-        <v>-114269.1911697779</v>
       </c>
     </row>
     <row r="7">
@@ -1237,7 +1231,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Mitsubishi UFJ Financial Group, Inc. (TSE:8306)</t>
+          <t>Aozora Bank, Ltd. (TSE:8304)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1246,13 +1240,13 @@
         </is>
       </c>
       <c r="D7">
-        <v>-0.0399</v>
+        <v>0.0151</v>
       </c>
       <c r="E7">
-        <v>-0.143</v>
+        <v>-0.123</v>
       </c>
       <c r="F7">
-        <v>0.0604</v>
+        <v>0.0395</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1261,91 +1255,91 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-0.002713137511494481</v>
+        <v>0.01110687203747664</v>
       </c>
       <c r="J7">
-        <v>-0.00238730203844763</v>
+        <v>0.006860542460807772</v>
       </c>
       <c r="K7">
-        <v>6270.6</v>
+        <v>218.2</v>
       </c>
       <c r="L7">
-        <v>0.1784106751643099</v>
+        <v>0.2045944678856071</v>
       </c>
       <c r="M7">
-        <v>3477.7</v>
+        <v>152.877</v>
       </c>
       <c r="N7">
-        <v>0.04966362061603624</v>
+        <v>0.07104610093874895</v>
       </c>
       <c r="O7">
-        <v>0.5546040251331611</v>
+        <v>0.700627864344638</v>
       </c>
       <c r="P7">
-        <v>2549.5</v>
+        <v>152.877</v>
       </c>
       <c r="Q7">
-        <v>0.03640837356890601</v>
+        <v>0.07104610093874895</v>
       </c>
       <c r="R7">
-        <v>0.4065799126080439</v>
+        <v>0.700627864344638</v>
       </c>
       <c r="S7">
-        <v>928.1999999999998</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>0.266900537711706</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>675244.7</v>
+        <v>8094.8</v>
       </c>
       <c r="V7">
-        <v>9.642895190438855</v>
+        <v>3.761873780091086</v>
       </c>
       <c r="W7">
-        <v>0.04369332866015069</v>
+        <v>0.0494034007290511</v>
       </c>
       <c r="X7">
-        <v>0.1993304952420014</v>
+        <v>0.121434051612196</v>
       </c>
       <c r="Y7">
-        <v>-0.1556371665818508</v>
+        <v>-0.07203065088314492</v>
       </c>
       <c r="Z7">
-        <v>0.2832966608491431</v>
+        <v>0.1022475026445874</v>
       </c>
       <c r="AA7">
-        <v>-0.0006763146959305664</v>
+        <v>0.0007014733334047469</v>
       </c>
       <c r="AB7">
-        <v>0.04233338766159341</v>
+        <v>0.03845569972674823</v>
       </c>
       <c r="AC7">
-        <v>-0.04300970235752398</v>
+        <v>-0.03775422639334348</v>
       </c>
       <c r="AD7">
-        <v>662020.9</v>
+        <v>10298</v>
       </c>
       <c r="AE7">
-        <v>4737.293220582483</v>
+        <v>33.77260486015581</v>
       </c>
       <c r="AF7">
-        <v>666758.1932205826</v>
+        <v>10331.77260486016</v>
       </c>
       <c r="AG7">
-        <v>-8486.506779417396</v>
+        <v>2236.972604860156</v>
       </c>
       <c r="AH7">
-        <v>0.9049583498372901</v>
+        <v>0.8276294720982155</v>
       </c>
       <c r="AI7">
-        <v>0.8012051499190954</v>
+        <v>0.6966818402263383</v>
       </c>
       <c r="AJ7">
-        <v>-0.1379054400707188</v>
+        <v>0.5097034652428603</v>
       </c>
       <c r="AK7">
-        <v>-0.0540716125451351</v>
+        <v>0.3321329290426704</v>
       </c>
       <c r="AL7">
         <v>0</v>
@@ -1354,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="AN7">
-        <v>776.9286468724329</v>
+        <v>553.6559139784946</v>
       </c>
       <c r="AP7">
-        <v>-9.959519750519183</v>
+        <v>120.2673443473202</v>
       </c>
     </row>
     <row r="8">
@@ -1368,7 +1362,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sumitomo Mitsui Financial Group, Inc. (TSE:8316)</t>
+          <t>Mizuho Financial Group, Inc. (TSE:8411)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1377,13 +1371,13 @@
         </is>
       </c>
       <c r="D8">
-        <v>-0.0944</v>
+        <v>-0.0332</v>
       </c>
       <c r="E8">
-        <v>-0.08710000000000001</v>
+        <v>-0.101</v>
       </c>
       <c r="F8">
-        <v>0.0268</v>
+        <v>0.0717</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1392,91 +1386,91 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-0.002422444765844754</v>
+        <v>0.000873127762109782</v>
       </c>
       <c r="J8">
-        <v>-0.001900713166847968</v>
+        <v>0.0005907307630280142</v>
       </c>
       <c r="K8">
-        <v>4747</v>
+        <v>3568.9</v>
       </c>
       <c r="L8">
-        <v>0.1997458468685304</v>
+        <v>0.15821415588676</v>
       </c>
       <c r="M8">
-        <v>2137.9</v>
+        <v>1820.1</v>
       </c>
       <c r="N8">
-        <v>0.04208174633637445</v>
+        <v>0.05666774599300099</v>
       </c>
       <c r="O8">
-        <v>0.4503686538866652</v>
+        <v>0.5099890722631623</v>
       </c>
       <c r="P8">
-        <v>1207.1</v>
+        <v>1805.8</v>
       </c>
       <c r="Q8">
-        <v>0.02376017400375958</v>
+        <v>0.05622252388009515</v>
       </c>
       <c r="R8">
-        <v>0.2542869180535074</v>
+        <v>0.5059822354226793</v>
       </c>
       <c r="S8">
-        <v>930.7999999999997</v>
+        <v>14.29999999999995</v>
       </c>
       <c r="T8">
-        <v>0.4353805135881004</v>
+        <v>0.007856711169715926</v>
       </c>
       <c r="U8">
-        <v>534108.5</v>
+        <v>391707.3</v>
       </c>
       <c r="V8">
-        <v>10.51322251419686</v>
+        <v>12.19557704521962</v>
       </c>
       <c r="W8">
-        <v>0.05052085328837861</v>
+        <v>0.04365092954990216</v>
       </c>
       <c r="X8">
-        <v>0.1698051660140837</v>
+        <v>0.258714496099499</v>
       </c>
       <c r="Y8">
-        <v>-0.1192843127257051</v>
+        <v>-0.2150635665495969</v>
       </c>
       <c r="Z8">
-        <v>1.245356519012005</v>
+        <v>-5.680709168713153</v>
       </c>
       <c r="AA8">
-        <v>-0.002367065533106069</v>
+        <v>-0.003355769661774157</v>
       </c>
       <c r="AB8">
-        <v>0.04234525874474085</v>
+        <v>0.03777212036441507</v>
       </c>
       <c r="AC8">
-        <v>-0.04471232427784692</v>
+        <v>-0.04112789002618923</v>
       </c>
       <c r="AD8">
-        <v>390008.1</v>
+        <v>397419.2</v>
       </c>
       <c r="AE8">
-        <v>2435.849421746269</v>
+        <v>2274.022539094924</v>
       </c>
       <c r="AF8">
-        <v>392443.9494217462</v>
+        <v>399693.2225390949</v>
       </c>
       <c r="AG8">
-        <v>-141664.5505782538</v>
+        <v>7985.922539094929</v>
       </c>
       <c r="AH8">
-        <v>0.8853834352204903</v>
+        <v>0.925618560105996</v>
       </c>
       <c r="AI8">
-        <v>0.7909204875932178</v>
+        <v>0.8255990113523146</v>
       </c>
       <c r="AJ8">
-        <v>1.55913397079033</v>
+        <v>0.1991267370397609</v>
       </c>
       <c r="AK8">
-        <v>3.735667635355324</v>
+        <v>0.08641106574131516</v>
       </c>
       <c r="AL8">
         <v>0</v>
@@ -1485,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="AN8">
-        <v>907.8400837988826</v>
+        <v>837.5536354056902</v>
       </c>
       <c r="AP8">
-        <v>-329.7591959456558</v>
+        <v>16.8301844870283</v>
       </c>
     </row>
   </sheetData>
